--- a/biology/Zoologie/Coendou_bicolor/Coendou_bicolor.xlsx
+++ b/biology/Zoologie/Coendou_bicolor/Coendou_bicolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coendou bicolore, Porc-épic arboricole
 Le Coendou bicolore (Coendou bicolor)  est un rongeur de la famille des Erethizontidae. Il vit dans les forêts d'altitude du Pérou, entre 150 et 2 500 mètres.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Coendou bicolore mesure 60 à 30 cm de long pour le corps, et de plus ou moins autant pour sa queue.
 Le côté dorsal est recouvert d'épines courtes. La coloration du côté dorsal varie du jaune au noir, mais habituellement est grise. Aucune épine ne se trouve sur la queue qui est longue (33-48 cm) et préhensile. Ce petit animal pèse en moyenne 3 à 5 kg. Il n'y a aucune période de reproduction. La gestation des petits dure 203 jours. Les jeunes pèsent en moyenne 415 grammes à la naissance et peuvent s'élever presque immédiatement ! Le coendou ne vit pas en communauté.
@@ -544,7 +558,9 @@
           <t>Son habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les coendous bicolores vivent dans les forêts entre 150 et 200 mètres d'altitude. Ils se reproduisent dans les régions côtiéres et amazoniennes du Pérou. Ce coendou est nocturne. Durant la journée les individus se reposent dans les arbres à une hauteur de 6 à 10 mètres.
 </t>
@@ -575,7 +591,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Coendou bicolore est solitaire et nocturne et se repose durant la journée. Il s'aventure parfois dans les champs cultivés. 
 Son régime alimentaire est principalement végétarien, y compris les feuilles, tiges, fruits, fleurs et les racines. 
@@ -610,10 +628,12 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Nom scientifique : Coendou bicolor  (Tschudi, 1844)[1],[2]
-noms vulgaires (vulgarisation scientifique) ou Noms vernaculaires (langage courant) : Coendou bicolore[3], Porc-épic arboricole[4] ou Porc-épic à piquants bicolores[réf. souhaitée]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Nom scientifique : Coendou bicolor  (Tschudi, 1844),
+noms vulgaires (vulgarisation scientifique) ou Noms vernaculaires (langage courant) : Coendou bicolore, Porc-épic arboricole ou Porc-épic à piquants bicolores[réf. souhaitée]</t>
         </is>
       </c>
     </row>
@@ -641,11 +661,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite pour la première fois en 1844 par le naturaliste suisse Johann Jakob von Tschudi (1818-1889). 
-Liste des sous-espèces
-Selon Mammal Species of the World (version 3, 2005)  (13 janvier 2014)[5] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1844 par le naturaliste suisse Johann Jakob von Tschudi (1818-1889). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Coendou_bicolor</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coendou_bicolor</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (13 janvier 2014) :
 sous-espèce Coendou bicolor bicolor
 sous-espèce Coendou bicolor quichua
 sous-espèce Coendou bicolor richardsoni
